--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H2">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I2">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J2">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>64.47405424170417</v>
+        <v>73.76570622244951</v>
       </c>
       <c r="R2">
-        <v>64.47405424170417</v>
+        <v>295.062824889798</v>
       </c>
       <c r="S2">
-        <v>0.004353352028755999</v>
+        <v>0.004537248515827635</v>
       </c>
       <c r="T2">
-        <v>0.004353352028755999</v>
+        <v>0.003051719799226194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H3">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I3">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J3">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>41.68199324292588</v>
+        <v>44.24841476125118</v>
       </c>
       <c r="R3">
-        <v>41.68199324292588</v>
+        <v>265.490488567507</v>
       </c>
       <c r="S3">
-        <v>0.002814409485813173</v>
+        <v>0.002721671959565844</v>
       </c>
       <c r="T3">
-        <v>0.002814409485813173</v>
+        <v>0.002745864650249643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H4">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I4">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J4">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>128.5010272579017</v>
+        <v>1.028494895694</v>
       </c>
       <c r="R4">
-        <v>128.5010272579017</v>
+        <v>6.170969374164001</v>
       </c>
       <c r="S4">
-        <v>0.008676516690159824</v>
+        <v>6.326160458562393E-05</v>
       </c>
       <c r="T4">
-        <v>0.008676516690159824</v>
+        <v>6.382393114614923E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H5">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I5">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J5">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>1491.789590771131</v>
+        <v>2.295844783328833</v>
       </c>
       <c r="R5">
-        <v>1491.789590771131</v>
+        <v>13.775068699973</v>
       </c>
       <c r="S5">
-        <v>0.1007271113603997</v>
+        <v>0.000141214920444416</v>
       </c>
       <c r="T5">
-        <v>0.1007271113603997</v>
+        <v>0.000142470166830095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.2930207835562</v>
+        <v>16.2726235</v>
       </c>
       <c r="H6">
-        <v>22.2930207835562</v>
+        <v>32.545247</v>
       </c>
       <c r="I6">
-        <v>0.1601656396234505</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J6">
-        <v>0.1601656396234505</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>88.58544257954597</v>
+        <v>247.379156247748</v>
       </c>
       <c r="R6">
-        <v>88.58544257954597</v>
+        <v>1484.274937486488</v>
       </c>
       <c r="S6">
-        <v>0.005981376860933714</v>
+        <v>0.01521602336656265</v>
       </c>
       <c r="T6">
-        <v>0.005981376860933714</v>
+        <v>0.01535127719296553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.2930207835562</v>
+        <v>16.2726235</v>
       </c>
       <c r="H7">
-        <v>22.2930207835562</v>
+        <v>32.545247</v>
       </c>
       <c r="I7">
-        <v>0.1601656396234505</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J7">
-        <v>0.1601656396234505</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>57.26982524132698</v>
+        <v>1502.388165566885</v>
       </c>
       <c r="R7">
-        <v>57.26982524132698</v>
+        <v>6009.55266226754</v>
       </c>
       <c r="S7">
-        <v>0.003866915348089989</v>
+        <v>0.09241026519638725</v>
       </c>
       <c r="T7">
-        <v>0.003866915348089989</v>
+        <v>0.062154461006004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H8">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J8">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>176.5566087854976</v>
+        <v>108.48442547901</v>
       </c>
       <c r="R8">
-        <v>176.5566087854976</v>
+        <v>650.90655287406</v>
       </c>
       <c r="S8">
-        <v>0.01192127717244526</v>
+        <v>0.006672759249544765</v>
       </c>
       <c r="T8">
-        <v>0.01192127717244526</v>
+        <v>0.006732072790239597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H9">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J9">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N9">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P9">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q9">
-        <v>2049.67475193363</v>
+        <v>65.07446480964333</v>
       </c>
       <c r="R9">
-        <v>2049.67475193363</v>
+        <v>585.67018328679</v>
       </c>
       <c r="S9">
-        <v>0.1383960702419816</v>
+        <v>0.004002659691014714</v>
       </c>
       <c r="T9">
-        <v>0.1383960702419816</v>
+        <v>0.006057358445003243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.0420545160175</v>
+        <v>23.93153</v>
       </c>
       <c r="H10">
-        <v>35.0420545160175</v>
+        <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.2517618913008724</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J10">
-        <v>0.2517618913008724</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N10">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O10">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P10">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q10">
-        <v>139.2460868509898</v>
+        <v>1.51256842212</v>
       </c>
       <c r="R10">
-        <v>139.2460868509898</v>
+        <v>13.61311579908</v>
       </c>
       <c r="S10">
-        <v>0.009402033761000661</v>
+        <v>9.303644172612957E-05</v>
       </c>
       <c r="T10">
-        <v>0.009402033761000661</v>
+        <v>0.0001407951510961344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.0420545160175</v>
+        <v>23.93153</v>
       </c>
       <c r="H11">
-        <v>35.0420545160175</v>
+        <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.2517618913008724</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J11">
-        <v>0.2517618913008724</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N11">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O11">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P11">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q11">
-        <v>90.02155238242415</v>
+        <v>3.376411818756666</v>
       </c>
       <c r="R11">
-        <v>90.02155238242415</v>
+        <v>30.38770636880999</v>
       </c>
       <c r="S11">
-        <v>0.00607834441784333</v>
+        <v>0.0002076794258198842</v>
       </c>
       <c r="T11">
-        <v>0.00607834441784333</v>
+        <v>0.0003142882035830998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.0420545160175</v>
+        <v>23.93153</v>
       </c>
       <c r="H12">
-        <v>35.0420545160175</v>
+        <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.2517618913008724</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J12">
-        <v>0.2517618913008724</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N12">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O12">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P12">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q12">
-        <v>277.5266021726483</v>
+        <v>363.81113955704</v>
       </c>
       <c r="R12">
-        <v>277.5266021726483</v>
+        <v>3274.30025601336</v>
       </c>
       <c r="S12">
-        <v>0.01873887117557079</v>
+        <v>0.02237762827104031</v>
       </c>
       <c r="T12">
-        <v>0.01873887117557079</v>
+        <v>0.03386481141302479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.0420545160175</v>
+        <v>23.93153</v>
       </c>
       <c r="H13">
-        <v>35.0420545160175</v>
+        <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.2517618913008724</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J13">
-        <v>0.2517618913008724</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N13">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O13">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P13">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q13">
-        <v>3221.852035877632</v>
+        <v>2209.505274666305</v>
       </c>
       <c r="R13">
-        <v>3221.852035877632</v>
+        <v>13257.03164799783</v>
       </c>
       <c r="S13">
-        <v>0.2175426419464576</v>
+        <v>0.1359042709895732</v>
       </c>
       <c r="T13">
-        <v>0.2175426419464576</v>
+        <v>0.1371123115027225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.6105059723472</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H14">
-        <v>37.6105059723472</v>
+        <v>105.243038</v>
       </c>
       <c r="I14">
-        <v>0.2702150957516694</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J14">
-        <v>0.2702150957516694</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N14">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O14">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P14">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q14">
-        <v>149.4523039093292</v>
+        <v>159.026334896482</v>
       </c>
       <c r="R14">
-        <v>149.4523039093292</v>
+        <v>954.1580093788921</v>
       </c>
       <c r="S14">
-        <v>0.01009116764996442</v>
+        <v>0.009781537233720413</v>
       </c>
       <c r="T14">
-        <v>0.01009116764996442</v>
+        <v>0.009868484414799946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.6105059723472</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H15">
-        <v>37.6105059723472</v>
+        <v>105.243038</v>
       </c>
       <c r="I15">
-        <v>0.2702150957516694</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J15">
-        <v>0.2702150957516694</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N15">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P15">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q15">
-        <v>96.61979527974087</v>
+        <v>95.39206746345315</v>
       </c>
       <c r="R15">
-        <v>96.61979527974087</v>
+        <v>858.5286071710782</v>
       </c>
       <c r="S15">
-        <v>0.006523864316368318</v>
+        <v>0.005867462519982771</v>
       </c>
       <c r="T15">
-        <v>0.006523864316368318</v>
+        <v>0.008879426778634677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.6105059723472</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H16">
-        <v>37.6105059723472</v>
+        <v>105.243038</v>
       </c>
       <c r="I16">
-        <v>0.2702150957516694</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J16">
-        <v>0.2702150957516694</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N16">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O16">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P16">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q16">
-        <v>297.8682635097354</v>
+        <v>2.217260324584</v>
       </c>
       <c r="R16">
-        <v>297.8682635097354</v>
+        <v>19.955342921256</v>
       </c>
       <c r="S16">
-        <v>0.02011236030529261</v>
+        <v>0.0001363812756917735</v>
       </c>
       <c r="T16">
-        <v>0.02011236030529261</v>
+        <v>0.000206390334383499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.6105059723472</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H17">
-        <v>37.6105059723472</v>
+        <v>105.243038</v>
       </c>
       <c r="I17">
-        <v>0.2702150957516694</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J17">
-        <v>0.2702150957516694</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N17">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O17">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P17">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q17">
-        <v>3458.001732803827</v>
+        <v>4.949451446760222</v>
       </c>
       <c r="R17">
-        <v>3458.001732803827</v>
+        <v>44.545063020842</v>
       </c>
       <c r="S17">
-        <v>0.2334877034800441</v>
+        <v>0.0003044353857773999</v>
       </c>
       <c r="T17">
-        <v>0.2334877034800441</v>
+        <v>0.0004607122257073677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.997981806220469</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H18">
-        <v>9.997981806220469</v>
+        <v>105.243038</v>
       </c>
       <c r="I18">
-        <v>0.07183114242274871</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J18">
-        <v>0.07183114242274871</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N18">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O18">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P18">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q18">
-        <v>39.72883046247288</v>
+        <v>533.3074481687947</v>
       </c>
       <c r="R18">
-        <v>39.72883046247288</v>
+        <v>4799.767033519152</v>
       </c>
       <c r="S18">
-        <v>0.002682529999517802</v>
+        <v>0.03280316222265452</v>
       </c>
       <c r="T18">
-        <v>0.002682529999517802</v>
+        <v>0.04964211975308728</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.997981806220469</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H19">
-        <v>9.997981806220469</v>
+        <v>105.243038</v>
       </c>
       <c r="I19">
-        <v>0.07183114242274871</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J19">
-        <v>0.07183114242274871</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N19">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O19">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P19">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q19">
-        <v>25.68439137824524</v>
+        <v>3238.893732562668</v>
       </c>
       <c r="R19">
-        <v>25.68439137824524</v>
+        <v>19433.36239537601</v>
       </c>
       <c r="S19">
-        <v>0.001734235556130456</v>
+        <v>0.1992208376162877</v>
       </c>
       <c r="T19">
-        <v>0.001734235556130456</v>
+        <v>0.2009916932424694</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.997981806220469</v>
+        <v>37.788217</v>
       </c>
       <c r="H20">
-        <v>9.997981806220469</v>
+        <v>113.364651</v>
       </c>
       <c r="I20">
-        <v>0.07183114242274871</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J20">
-        <v>0.07183114242274871</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N20">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O20">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P20">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q20">
-        <v>79.18217004074415</v>
+        <v>171.298408882389</v>
       </c>
       <c r="R20">
-        <v>79.18217004074415</v>
+        <v>1027.790453294334</v>
       </c>
       <c r="S20">
-        <v>0.005346458581554601</v>
+        <v>0.01053637918305076</v>
       </c>
       <c r="T20">
-        <v>0.005346458581554601</v>
+        <v>0.01063003608450314</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.997981806220469</v>
+        <v>37.788217</v>
       </c>
       <c r="H21">
-        <v>9.997981806220469</v>
+        <v>113.364651</v>
       </c>
       <c r="I21">
-        <v>0.07183114242274871</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J21">
-        <v>0.07183114242274871</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N21">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P21">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q21">
-        <v>919.2388540550622</v>
+        <v>102.7534803410257</v>
       </c>
       <c r="R21">
-        <v>919.2388540550622</v>
+        <v>924.7813230692311</v>
       </c>
       <c r="S21">
-        <v>0.06206791828554585</v>
+        <v>0.006320255035144722</v>
       </c>
       <c r="T21">
-        <v>0.06206791828554585</v>
+        <v>0.009564652797650846</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.0184681010432</v>
+        <v>37.788217</v>
       </c>
       <c r="H22">
-        <v>18.0184681010432</v>
+        <v>113.364651</v>
       </c>
       <c r="I22">
-        <v>0.1294548413361303</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J22">
-        <v>0.1294548413361303</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N22">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O22">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P22">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q22">
-        <v>71.59971664825767</v>
+        <v>2.388366467268</v>
       </c>
       <c r="R22">
-        <v>71.59971664825767</v>
+        <v>21.495298205412</v>
       </c>
       <c r="S22">
-        <v>0.004834483815156595</v>
+        <v>0.0001469058287896695</v>
       </c>
       <c r="T22">
-        <v>0.004834483815156595</v>
+        <v>0.0002223174917010536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.0184681010432</v>
+        <v>37.788217</v>
       </c>
       <c r="H23">
-        <v>18.0184681010432</v>
+        <v>113.364651</v>
       </c>
       <c r="I23">
-        <v>0.1294548413361303</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J23">
-        <v>0.1294548413361303</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N23">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O23">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P23">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q23">
-        <v>46.28868062709252</v>
+        <v>5.331400979734333</v>
       </c>
       <c r="R23">
-        <v>46.28868062709252</v>
+        <v>47.982608817609</v>
       </c>
       <c r="S23">
-        <v>0.00312545758268831</v>
+        <v>0.0003279286869379929</v>
       </c>
       <c r="T23">
-        <v>0.00312545758268831</v>
+        <v>0.0004962654221246346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.0184681010432</v>
+        <v>37.788217</v>
       </c>
       <c r="H24">
-        <v>18.0184681010432</v>
+        <v>113.364651</v>
       </c>
       <c r="I24">
-        <v>0.1294548413361303</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J24">
-        <v>0.1294548413361303</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N24">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O24">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P24">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q24">
-        <v>142.7029407237817</v>
+        <v>574.4628232544561</v>
       </c>
       <c r="R24">
-        <v>142.7029407237817</v>
+        <v>5170.165409290104</v>
       </c>
       <c r="S24">
-        <v>0.0096354439598353</v>
+        <v>0.03533458466932145</v>
       </c>
       <c r="T24">
-        <v>0.0096354439598353</v>
+        <v>0.05347300579358936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.0184681010432</v>
+        <v>37.788217</v>
       </c>
       <c r="H25">
-        <v>18.0184681010432</v>
+        <v>113.364651</v>
       </c>
       <c r="I25">
-        <v>0.1294548413361303</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J25">
-        <v>0.1294548413361303</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N25">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O25">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P25">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q25">
-        <v>1656.661943385957</v>
+        <v>3488.839400645715</v>
       </c>
       <c r="R25">
-        <v>1656.661943385957</v>
+        <v>20933.03640387429</v>
       </c>
       <c r="S25">
-        <v>0.1118594559784501</v>
+        <v>0.2145947243398478</v>
       </c>
       <c r="T25">
-        <v>0.1118594559784501</v>
+        <v>0.216502237025233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H26">
+        <v>30.408539</v>
+      </c>
+      <c r="I26">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J26">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>45.948488362021</v>
+      </c>
+      <c r="R26">
+        <v>275.690930172126</v>
+      </c>
+      <c r="S26">
+        <v>0.002826241641290697</v>
+      </c>
+      <c r="T26">
+        <v>0.002851363842217633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H27">
+        <v>30.408539</v>
+      </c>
+      <c r="I27">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J27">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>27.56223555379545</v>
+      </c>
+      <c r="R27">
+        <v>248.060119984159</v>
+      </c>
+      <c r="S27">
+        <v>0.001695323189643521</v>
+      </c>
+      <c r="T27">
+        <v>0.002565589141352579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H28">
+        <v>30.408539</v>
+      </c>
+      <c r="I28">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J28">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.640647099652</v>
+      </c>
+      <c r="R28">
+        <v>5.765823896868</v>
+      </c>
+      <c r="S28">
+        <v>3.940550766638877E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.963366937700591E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H29">
+        <v>30.408539</v>
+      </c>
+      <c r="I29">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J29">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>1.430076423177889</v>
+      </c>
+      <c r="R29">
+        <v>12.870687808601</v>
+      </c>
+      <c r="S29">
+        <v>8.796244841765312E-05</v>
+      </c>
+      <c r="T29">
+        <v>0.0001331165077465674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H30">
+        <v>30.408539</v>
+      </c>
+      <c r="I30">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J30">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>154.0919061708507</v>
+      </c>
+      <c r="R30">
+        <v>1386.827155537656</v>
+      </c>
+      <c r="S30">
+        <v>0.009478025879212235</v>
+      </c>
+      <c r="T30">
+        <v>0.0143434127638393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10.13617966666667</v>
+      </c>
+      <c r="H31">
+        <v>30.408539</v>
+      </c>
+      <c r="I31">
+        <v>0.07168909983387287</v>
+      </c>
+      <c r="J31">
+        <v>0.07802692164876225</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>935.8341250419572</v>
+      </c>
+      <c r="R31">
+        <v>5615.004750251744</v>
+      </c>
+      <c r="S31">
+        <v>0.05756214116764237</v>
+      </c>
+      <c r="T31">
+        <v>0.05807380572422915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.181244</v>
+      </c>
+      <c r="H32">
+        <v>36.362488</v>
+      </c>
+      <c r="I32">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J32">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.533117</v>
+      </c>
+      <c r="N32">
+        <v>9.066234</v>
+      </c>
+      <c r="O32">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P32">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q32">
+        <v>82.41770625754799</v>
+      </c>
+      <c r="R32">
+        <v>329.670825030192</v>
+      </c>
+      <c r="S32">
+        <v>0.005069423646094932</v>
+      </c>
+      <c r="T32">
+        <v>0.003409656856459712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.181244</v>
+      </c>
+      <c r="H33">
+        <v>36.362488</v>
+      </c>
+      <c r="I33">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J33">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N33">
+        <v>8.157581</v>
+      </c>
+      <c r="O33">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P33">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q33">
+        <v>49.43832353692134</v>
+      </c>
+      <c r="R33">
+        <v>296.629941221528</v>
+      </c>
+      <c r="S33">
+        <v>0.003040897614624017</v>
+      </c>
+      <c r="T33">
+        <v>0.003067927872672984</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.181244</v>
+      </c>
+      <c r="H34">
+        <v>36.362488</v>
+      </c>
+      <c r="I34">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J34">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.063204</v>
+      </c>
+      <c r="N34">
+        <v>0.189612</v>
+      </c>
+      <c r="O34">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P34">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q34">
+        <v>1.149127345776</v>
+      </c>
+      <c r="R34">
+        <v>6.894764074656</v>
+      </c>
+      <c r="S34">
+        <v>7.06815756416135E-05</v>
+      </c>
+      <c r="T34">
+        <v>7.130985763957107E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.181244</v>
+      </c>
+      <c r="H35">
+        <v>36.362488</v>
+      </c>
+      <c r="I35">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J35">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P35">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q35">
+        <v>2.565125051398666</v>
+      </c>
+      <c r="R35">
+        <v>15.390750308392</v>
+      </c>
+      <c r="S35">
+        <v>0.0001577780574251297</v>
+      </c>
+      <c r="T35">
+        <v>0.0001591805320057128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.181244</v>
+      </c>
+      <c r="H36">
+        <v>36.362488</v>
+      </c>
+      <c r="I36">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J36">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.202168</v>
+      </c>
+      <c r="N36">
+        <v>45.606504</v>
+      </c>
+      <c r="O36">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P36">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q36">
+        <v>276.394325736992</v>
+      </c>
+      <c r="R36">
+        <v>1658.365954421952</v>
+      </c>
+      <c r="S36">
+        <v>0.01700071494539137</v>
+      </c>
+      <c r="T36">
+        <v>0.01715183273041014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.181244</v>
+      </c>
+      <c r="H37">
+        <v>36.362488</v>
+      </c>
+      <c r="I37">
+        <v>0.1285885865368279</v>
+      </c>
+      <c r="J37">
+        <v>0.09330448273526253</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N37">
+        <v>184.652237</v>
+      </c>
+      <c r="O37">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P37">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q37">
+        <v>1678.603688021414</v>
+      </c>
+      <c r="R37">
+        <v>6714.414752085656</v>
+      </c>
+      <c r="S37">
+        <v>0.1032490906976508</v>
+      </c>
+      <c r="T37">
+        <v>0.06944457488607439</v>
       </c>
     </row>
   </sheetData>
